--- a/analyzeData/fly_arduino/G3/Fig2/A_Excel2020.xlsx
+++ b/analyzeData/fly_arduino/G3/Fig2/A_Excel2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/git/flyCode/analyzeData/fly_arduino/G3/Fig2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F446B549-22D2-EA4C-90C0-71DB1E94CFD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00762799-0BCD-8748-9AE5-AC9C30096D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27300" windowHeight="16540" xr2:uid="{FD48220E-7BD6-8E43-A69E-DFFF21E6A196}"/>
   </bookViews>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -673,6 +673,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -790,7 +795,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A466CFEE-2622-B647-9DB3-74F5BEE12783}</c15:txfldGUID>
+                      <c15:txfldGUID>{0801854C-C8AF-874B-9473-A73232DB67A6}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$B$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -859,7 +864,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5DA54EE0-FA45-A945-BE74-1705D19F9607}</c15:txfldGUID>
+                      <c15:txfldGUID>{53581706-A87F-E34A-A18A-F95FCDBBDB6E}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$C$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -922,7 +927,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{98BC8E2C-E1CA-1E4F-9B66-BCFF5C002F62}</c15:txfldGUID>
+                      <c15:txfldGUID>{ABD020BD-7732-A141-A7B8-695774F752DA}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$D$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -985,7 +990,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D039F7CA-38B4-7944-AE19-A8C3FFF54A4D}</c15:txfldGUID>
+                      <c15:txfldGUID>{297A7BDB-D384-1441-B114-04F4D96EB89B}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$E$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1054,7 +1059,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{25C982F2-94C2-864F-8296-5495810511E6}</c15:txfldGUID>
+                      <c15:txfldGUID>{1C9E4719-B1CE-6144-8535-274390A660D9}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$F$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1123,7 +1128,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{46369D39-6CAD-D141-825D-0A8E98E2F221}</c15:txfldGUID>
+                      <c15:txfldGUID>{91B638AF-E969-2645-8365-CBD329BF8DC3}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$G$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1192,7 +1197,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DC5FD04-1336-5148-AA37-36E415644C6A}</c15:txfldGUID>
+                      <c15:txfldGUID>{6DF95F8F-B47F-024A-B87D-76053FB21F5B}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$H$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1261,7 +1266,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AED381E6-D78B-DB42-A59A-C665DE510054}</c15:txfldGUID>
+                      <c15:txfldGUID>{CC2F38A7-11B0-A44F-9AE3-97CC24560BD3}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$I$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1330,7 +1335,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AD534690-1DFA-4240-9494-B6E452DFCEE0}</c15:txfldGUID>
+                      <c15:txfldGUID>{4E6EC880-1497-B44F-9BD0-3A62908E559A}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$J$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1399,7 +1404,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{97E04451-3CBF-CE45-BBF8-2C36392AB603}</c15:txfldGUID>
+                      <c15:txfldGUID>{2C70AFA5-8AA8-C243-B828-7B582C705D36}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$K$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1462,7 +1467,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E297890F-EC6E-6344-A337-AAE9E4B3B5EF}</c15:txfldGUID>
+                      <c15:txfldGUID>{85769D05-DDD6-0945-A906-A89CAAEDB194}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$L$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1525,7 +1530,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B78CCCC-68C8-DC4C-9BBD-4A07E0CAB916}</c15:txfldGUID>
+                      <c15:txfldGUID>{4CAFE2A2-8698-E04E-B0F0-38815F99B907}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$M$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1594,7 +1599,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{01035297-4544-8441-9943-AA45C8ECB274}</c15:txfldGUID>
+                      <c15:txfldGUID>{C64FA025-E4C9-5141-80DA-CFB73EB62DBE}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$N$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1663,7 +1668,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{610E3068-83FE-0546-AC26-AE1DF4089034}</c15:txfldGUID>
+                      <c15:txfldGUID>{A6693BA4-13EF-6841-AF74-D28CCADE1E96}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$O$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1732,7 +1737,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{249B4FDF-8085-254B-8D0E-2F3F2650743D}</c15:txfldGUID>
+                      <c15:txfldGUID>{8A28DD02-C771-FD44-852D-9EF0F6F33740}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$P$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1801,7 +1806,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FEF06982-40CD-A94F-BA32-36868CC46ACB}</c15:txfldGUID>
+                      <c15:txfldGUID>{37BAC6E0-0551-D34B-9AF6-8315ABCFCFAE}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$Q$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1870,7 +1875,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0E46645E-5F31-4D40-B1D3-8C0D2E7DBD0A}</c15:txfldGUID>
+                      <c15:txfldGUID>{3511D1EA-BD91-A646-A767-EBD40CFCF9FA}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$R$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1939,7 +1944,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{773D65E8-CCBD-994E-86FC-F8DC014CAAEE}</c15:txfldGUID>
+                      <c15:txfldGUID>{EC131AA7-69CD-9643-B610-3074195FA4CB}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$S$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2008,7 +2013,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{68902CD4-581B-384A-8326-8ED4E5E9F239}</c15:txfldGUID>
+                      <c15:txfldGUID>{9DDB548D-60E4-6542-8BA1-6C59BEED7387}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$T$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2077,7 +2082,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3F28B094-0A33-8F4C-979B-6C3A66887D4A}</c15:txfldGUID>
+                      <c15:txfldGUID>{E4948B23-80AF-D141-8FF0-A6107D8A2AC3}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$U$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2146,7 +2151,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{43CC3DA9-A39B-7643-AE15-61407315429F}</c15:txfldGUID>
+                      <c15:txfldGUID>{AD377162-6E94-0249-BD33-C528B8EE7340}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$V$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2215,7 +2220,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4975A922-1E75-3449-9FD3-370052894E79}</c15:txfldGUID>
+                      <c15:txfldGUID>{782BBC22-2FC0-EE49-87AC-77E5D3323EF1}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$W$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2284,7 +2289,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A5892993-62DC-AF48-AB82-FD0EEEA325A4}</c15:txfldGUID>
+                      <c15:txfldGUID>{A170047E-0A51-3B46-8F6D-9AE6E3EC86FB}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$X$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2571,7 +2576,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A57551BF-3ECD-2F49-8ECF-9D5E73087A90}</c15:txfldGUID>
+                      <c15:txfldGUID>{9D3949C7-2530-4448-B5AC-3AE8D9B6DD00}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$B$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2618,7 +2623,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4F2C878B-AF02-3647-9E43-BF01249BA22D}</c15:txfldGUID>
+                      <c15:txfldGUID>{5E0C1DE1-4D18-134C-AC56-50CD89235EC3}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$C$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2681,7 +2686,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B0494227-3211-E64A-832D-400A7FDC0F8C}</c15:txfldGUID>
+                      <c15:txfldGUID>{6834632C-DE20-C544-AE9B-E476A9462874}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$D$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2728,7 +2733,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6275671D-179B-754E-A022-B19122C19E9B}</c15:txfldGUID>
+                      <c15:txfldGUID>{87F90AF7-3216-6D43-80DA-FDF87B888C78}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$E$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2791,7 +2796,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7EB07B56-396B-9142-B294-073A7993B1D1}</c15:txfldGUID>
+                      <c15:txfldGUID>{E41427F0-CFDB-0C4C-8ED2-D8C8A068A4C5}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$F$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2838,7 +2843,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D5004450-C597-E04A-B351-6BDCBA0F7145}</c15:txfldGUID>
+                      <c15:txfldGUID>{B2C353D3-DEAB-7A47-B5A0-0B5B864CE4BE}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$G$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2885,7 +2890,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E0358892-E2D5-7741-AA7B-A910901C34C6}</c15:txfldGUID>
+                      <c15:txfldGUID>{66C5A7A8-FDC6-B749-901E-64A60D18B36E}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$H$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2948,7 +2953,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BAC7976F-4A05-3E4B-B729-C5FA310CFC82}</c15:txfldGUID>
+                      <c15:txfldGUID>{4B586248-FF24-B947-A399-E42719954032}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$I$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2995,7 +3000,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4A9F4671-0246-FD4A-803C-5D2C22EE06F8}</c15:txfldGUID>
+                      <c15:txfldGUID>{FFAE1EA1-EC92-3E4D-8751-344B767973FA}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$J$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3058,7 +3063,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{779FB0A8-6492-4541-97A5-BD13F03E6130}</c15:txfldGUID>
+                      <c15:txfldGUID>{04A6130A-3F55-0341-B4F2-87D0232DB3D6}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$K$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3105,7 +3110,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BC8836D2-BF2A-324A-8798-9C2596AB2372}</c15:txfldGUID>
+                      <c15:txfldGUID>{24E3400C-1E49-864C-B908-BD3981C2E719}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$L$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3152,7 +3157,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66C0A815-E25C-F94E-8EF1-AB04C73BCB21}</c15:txfldGUID>
+                      <c15:txfldGUID>{756FE91C-9F73-9946-98B6-6B27F63CE07F}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$M$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3199,7 +3204,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{97FAA062-6A3B-C44B-8B48-D6ECFCD3BB60}</c15:txfldGUID>
+                      <c15:txfldGUID>{E23F2A86-C1AE-D942-810A-350F82A72C3A}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$N$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3246,7 +3251,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B20A93CC-962B-E641-9FFA-73CC03220A94}</c15:txfldGUID>
+                      <c15:txfldGUID>{CE6CDF66-A94C-9F4C-A446-322F409E2781}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$O$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3293,7 +3298,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F77E4E68-E9B6-0F4F-9F20-BC7DE018D36F}</c15:txfldGUID>
+                      <c15:txfldGUID>{A07FE7DB-BB37-5A4D-8C2E-4FC9CFEB6FCA}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$P$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3340,7 +3345,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{098AB381-7076-D447-BD3C-10080ADCBC9B}</c15:txfldGUID>
+                      <c15:txfldGUID>{F403D77F-393E-2F49-9804-58D78F20DF54}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$Q$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3387,7 +3392,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E377BF2E-122E-AF48-B8D5-8B8791F20803}</c15:txfldGUID>
+                      <c15:txfldGUID>{5A52B55A-4E5D-6B41-B3AB-767C1E1E4673}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$R$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3434,7 +3439,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BB4043C0-A11F-F34E-A5C9-2405D94484BE}</c15:txfldGUID>
+                      <c15:txfldGUID>{5E480A64-D8AF-2D40-855B-F126BE56F4E0}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$S$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3481,7 +3486,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3D33170C-2760-0443-81C7-6F15BEB17667}</c15:txfldGUID>
+                      <c15:txfldGUID>{F0A32903-6C78-6941-A734-74BA038B691A}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$T$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3528,7 +3533,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3B7FE64C-3C69-ED4D-AB5E-7C91F767CF0F}</c15:txfldGUID>
+                      <c15:txfldGUID>{0B8584FE-8D35-124E-8385-AD070C4B2AA6}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$U$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3591,7 +3596,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{97E83F27-145C-F34A-84DA-BE49204D73C0}</c15:txfldGUID>
+                      <c15:txfldGUID>{6F4CB8B8-6CBE-0E42-BA84-A021D56F79A6}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$V$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3638,7 +3643,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5CBE776A-DD75-ED4F-AA98-BC12BBC2DE3C}</c15:txfldGUID>
+                      <c15:txfldGUID>{42F2AA49-6DD3-424F-8E81-482D12EE6FFE}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$W$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3685,7 +3690,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B5B43956-A44F-4249-80A2-9506761A4E1D}</c15:txfldGUID>
+                      <c15:txfldGUID>{CFA83FF8-4256-874A-9C80-4946E0EF23C8}</c15:txfldGUID>
                       <c15:f>'Data as percent'!$X$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4452,20 +4457,2796 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as percent'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1F1 TH X Rab at 1 day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data as percent'!$B$7:$X$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="23"/>
+                  <c:pt idx="0">
+                    <c:v>43.839785371989976</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.872538829340737</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>79.777569213586091</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>70.111972322489919</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>63.001550782279104</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26.01730395255246</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16.938236770249638</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>74.741782152181997</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.383488630396684</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11.41226350384985</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>53.508062760368134</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12.740884347889402</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15.507446228387852</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>30.316285050346824</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.113292104138699</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13.382638019668608</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>9.422014778275706</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13.746484421563643</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>31.725568407640687</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>47.087859719595485</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>26.156165368215106</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>45.880124121572393</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>40.97129111147099</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data as percent'!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as percent'!$B$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>342.71687463925798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.57083801914921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>501.35684709686473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.03862026375717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.22944987115068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.70428762333971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171.30720836511009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.75750289178481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.54135202673307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.908213685556404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197.68552037903717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.806367484756805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.88890802518382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166.95866269823873</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120.82210265328112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.697994600452148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.465629400208968</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.01567877322023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170.03634631621577</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>458.87520623550682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133.24751069916687</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>360.83150902200634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>290.49540641055887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76DC-BE41-8D9E-45AF654B1A02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as percent'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1F1 TH X Rab;G2019S at 7 day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF40FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data as percent'!$B$12:$X$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="23"/>
+                  <c:pt idx="0">
+                    <c:v>35.112552282476436</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26.510124606460572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>71.719088092684999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.347483628959765</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.962557981090477</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44.128682726855359</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.945076519116157</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>40.472317167611045</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>14.997622830131091</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>37.359955908060414</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>65.179641331873654</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>88.523380580569352</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>55.741631178317299</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>53.097857909312637</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>22.561527893019385</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>34.938937405242157</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10.837353031052212</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13.568699478487417</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>53.971009736274908</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>55.332630992075771</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>12.008795934558195</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>69.2638437470073</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44.644605562427209</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF40FF"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data as percent'!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as percent'!$B$22:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>332.69019753104601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201.61590245971718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>648.62491090362835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413.53666805953708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>431.27764461068381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367.89982053153273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>504.16810656554077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.5852959755257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>467.50978570492708</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276.21674688862055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>598.62650870179186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>562.76983653653701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300.42317013764989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>418.07454801116091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>302.3855532729566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115.49907444729406</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>221.09645690985423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339.04093043605297</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>499.62713208584535</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>590.27439723994723</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>194.47945884212507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>550.97445222920544</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>223.74541562754806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76DC-BE41-8D9E-45AF654B1A02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1204328143"/>
+        <c:axId val="1242318255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1204328143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242318255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1242318255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>photoreceptor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> response (% of wildtype)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204328143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as percent'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2F1 TH X Rab at 1 day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data as percent'!$B$7:$X$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="23"/>
+                  <c:pt idx="0">
+                    <c:v>43.839785371989976</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.872538829340737</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>79.777569213586091</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>70.111972322489919</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>63.001550782279104</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26.01730395255246</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16.938236770249638</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>74.741782152181997</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.383488630396684</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11.41226350384985</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>53.508062760368134</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12.740884347889402</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15.507446228387852</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>30.316285050346824</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.113292104138699</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13.382638019668608</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>9.422014778275706</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13.746484421563643</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>31.725568407640687</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>47.087859719595485</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>26.156165368215106</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>45.880124121572393</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>40.97129111147099</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data as percent'!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as percent'!$B$31:$X$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1900.1407818025768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365.11756418022827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2379.6364649403322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>955.04673593051507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1346.9901424657658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.17000138932235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.00721376123842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>841.97535600898004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>273.62588802463057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.868765855664989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>905.37552644542939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151.61670805496948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>272.48285185973447</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>612.02230589838177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>173.93066522289431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>316.48893463585068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.066579440816668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.297639972389035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>460.02292465644518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024.4113337269944</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>368.15153355902356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1787.379157617456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1499.4693184876783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E6-714D-A2EF-83713239CA78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data as percent'!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2F1 TH X Rab;G2019S at 1 day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data as percent'!$B$12:$X$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="23"/>
+                  <c:pt idx="0">
+                    <c:v>35.112552282476436</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26.510124606460572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>71.719088092684999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.347483628959765</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.962557981090477</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44.128682726855359</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.945076519116157</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>40.472317167611045</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>14.997622830131091</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>37.359955908060414</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>65.179641331873654</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>88.523380580569352</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>55.741631178317299</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>53.097857909312637</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>22.561527893019385</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>34.938937405242157</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10.837353031052212</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13.568699478487417</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>53.971009736274908</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>55.332630992075771</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>12.008795934558195</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>69.2638437470073</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44.644605562427209</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data as percent'!$B$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data as percent'!$B$41:$X$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2019.0559651187232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>773.88277263050145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1413.4657520952562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646.90274854358529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2070.1672019731109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598.64681098673282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>741.46237302935322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>851.35641565271033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>462.18113220124036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1228.7074550573525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2120.4789388624786</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2051.2279815713282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>433.87565533045461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822.70516781777872</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>839.79293188332042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>861.76618224440415</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>498.05334424025665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>911.46218111272378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1051.1674317680095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1893.5580909005139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1495.8050930448276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6825.4883966729867</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2721.1536081879422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2E6-714D-A2EF-83713239CA78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1204328143"/>
+        <c:axId val="1242318255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1204328143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242318255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1242318255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>lamina neuron</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> response (% of wildtype)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204328143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>55217</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36811</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533769</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>662608</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>55217</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>386522</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>184058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4485,6 +7266,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>364434</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>441740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB4FCB2-9C5A-D041-949C-172D07D39139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>386521</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>463827</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>221238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A04E2C-6D65-2E4A-AFB6-7DD1ACED049E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4795,11 +7650,11 @@
   </sheetPr>
   <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="H8" sqref="G3:H8"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="69" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -4818,7 +7673,7 @@
     <col min="30" max="30" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -4898,7 +7753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="53" customFormat="1">
       <c r="B2" s="61" t="str">
         <f t="shared" ref="B2:X2" si="0">B1</f>
         <v>1</v>
@@ -5014,7 +7869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="53" customFormat="1">
       <c r="A3" s="53" t="s">
         <v>64</v>
       </c>
@@ -5092,7 +7947,7 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
     </row>
-    <row r="4" spans="1:32" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="53" customFormat="1">
       <c r="A4" s="53" t="s">
         <v>63</v>
       </c>
@@ -5123,7 +7978,7 @@
       <c r="AA4" s="54"/>
       <c r="AB4" s="54"/>
     </row>
-    <row r="5" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="18" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>62</v>
       </c>
@@ -5220,7 +8075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="18" customFormat="1">
       <c r="B6" s="19">
         <v>164.03345677169045</v>
       </c>
@@ -5301,7 +8156,7 @@
         <v>44.682361673758628</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="18" customFormat="1">
       <c r="B7" s="19">
         <v>43.839785371989976</v>
       </c>
@@ -5382,7 +8237,7 @@
         <v>14.129803412449071</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="18" customFormat="1">
       <c r="B8" s="19">
         <v>14</v>
       </c>
@@ -5467,7 +8322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="17" customFormat="1">
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -5496,7 +8351,7 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="18" customFormat="1">
       <c r="A10" s="18" t="s">
         <v>61</v>
       </c>
@@ -5588,7 +8443,7 @@
         <v>42817.805899718987</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="18" customFormat="1">
       <c r="B11" s="19">
         <v>135.99033023286847</v>
       </c>
@@ -5669,7 +8524,7 @@
         <v>59.918418863896825</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="18" customFormat="1">
       <c r="B12" s="19">
         <v>35.112552282476436</v>
       </c>
@@ -5750,7 +8605,7 @@
         <v>17.296957630243792</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="18" customFormat="1">
       <c r="B13" s="19">
         <v>15</v>
       </c>
@@ -5835,7 +8690,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="17" customFormat="1">
       <c r="A14" s="29"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -5865,7 +8720,7 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
     </row>
-    <row r="15" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="18" customFormat="1">
       <c r="A15" s="18" t="s">
         <v>60</v>
       </c>
@@ -5949,7 +8804,7 @@
         <v>88.715279684756467</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="18" customFormat="1">
       <c r="B16" s="19">
         <v>205.04405443259523</v>
       </c>
@@ -6030,7 +8885,7 @@
         <v>50.571589591615663</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="18" customFormat="1">
       <c r="B17" s="19">
         <v>61.823108549647941</v>
       </c>
@@ -6111,7 +8966,7 @@
         <v>19.114264209233937</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="49" customFormat="1">
       <c r="B18" s="50">
         <v>11</v>
       </c>
@@ -6196,7 +9051,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="17" customFormat="1">
       <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
@@ -6306,7 +9161,7 @@
         <v>-20.869681625369097</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="17" customFormat="1">
       <c r="A20" s="17" t="s">
         <v>25</v>
       </c>
@@ -6407,7 +9262,7 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
     </row>
-    <row r="21" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="17" customFormat="1">
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -6436,7 +9291,7 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="17" customFormat="1">
       <c r="A22" s="18" t="s">
         <v>58</v>
       </c>
@@ -6520,7 +9375,7 @@
         <v>198.95253510006324</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="17" customFormat="1">
       <c r="B23" s="19">
         <v>199.10577376743865</v>
       </c>
@@ -6601,7 +9456,7 @@
         <v>136.12718096073394</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="17" customFormat="1">
       <c r="B24" s="19">
         <v>57.476886040919716</v>
       </c>
@@ -6682,7 +9537,7 @@
         <v>39.296532285852315</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="17" customFormat="1">
       <c r="B25" s="19">
         <v>12</v>
       </c>
@@ -6767,7 +9622,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="17" customFormat="1">
       <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
@@ -6877,7 +9732,7 @@
         <v>189.23990073406358</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="B27" s="16">
         <f t="shared" ref="B27:X27" si="4">B24/B15*100</f>
         <v>14.354430430777903</v>
@@ -6975,7 +9830,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="41" customFormat="1">
       <c r="A29" s="41" t="s">
         <v>56</v>
       </c>
@@ -6992,7 +9847,7 @@
       <c r="V29" s="42"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="32" customFormat="1">
       <c r="B30" s="39" t="s">
         <v>55</v>
       </c>
@@ -7073,7 +9928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
@@ -7166,7 +10021,7 @@
         <v>34208.970472094596</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32" s="18"/>
       <c r="B32" s="19">
         <v>1001.932951092849</v>
@@ -7248,7 +10103,7 @@
         <v>170.2608794365629</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="18"/>
       <c r="B33" s="19">
         <v>267.77784482205516</v>
@@ -7330,7 +10185,7 @@
         <v>53.841217544286458</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="18"/>
       <c r="B34" s="19">
         <v>14</v>
@@ -7412,7 +10267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7442,7 +10297,7 @@
       <c r="AA35" s="30"/>
       <c r="AB35" s="30"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -7535,7 +10390,7 @@
       </c>
       <c r="AE36" s="29"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="18"/>
       <c r="B37" s="19">
         <v>706.38408659788706</v>
@@ -7617,7 +10472,7 @@
         <v>290.90098138276909</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="18"/>
       <c r="B38" s="19">
         <v>182.38758689463694</v>
@@ -7699,7 +10554,7 @@
         <v>83.975879954434035</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="18"/>
       <c r="B39" s="19">
         <v>15</v>
@@ -7781,7 +10636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="17"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -7811,7 +10666,7 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="18" t="s">
         <v>27</v>
       </c>
@@ -7895,7 +10750,7 @@
         <v>182.47235619870185</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="18"/>
       <c r="B42" s="19">
         <v>1119.2528711054551</v>
@@ -7977,7 +10832,7 @@
         <v>251.9998927204503</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="18"/>
       <c r="B43" s="19">
         <v>337.46743808952817</v>
@@ -8059,7 +10914,7 @@
         <v>95.247006650466787</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="18"/>
       <c r="B44" s="19">
         <v>11</v>
@@ -8141,7 +10996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="17" customFormat="1">
       <c r="A45" s="18" t="s">
         <v>26</v>
       </c>
@@ -8251,7 +11106,7 @@
         <v>-11.934367809387521</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="17" t="s">
         <v>25</v>
       </c>
@@ -8352,7 +11207,7 @@
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -8382,7 +11237,7 @@
       <c r="AA47" s="15"/>
       <c r="AB47" s="15"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="18" t="s">
         <v>24</v>
       </c>
@@ -8466,7 +11321,7 @@
         <v>1021.8131814868492</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32">
       <c r="A49" s="17"/>
       <c r="B49" s="19">
         <v>1034.3501370059587</v>
@@ -8548,7 +11403,7 @@
         <v>792.81164107112841</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32">
       <c r="A50" s="17"/>
       <c r="B50" s="19">
         <v>298.59116501835825</v>
@@ -8630,7 +11485,7 @@
         <v>228.86500719454247</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32">
       <c r="A51" s="17"/>
       <c r="B51" s="19">
         <v>12</v>
@@ -8712,7 +11567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" s="17" customFormat="1">
       <c r="A52" s="18" t="s">
         <v>23</v>
       </c>
@@ -8822,7 +11677,7 @@
         <v>387.45906055052245</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32">
       <c r="B53" s="16">
         <f t="shared" ref="B53:X53" si="8">B50/B41*100</f>
         <v>14.788652230390289</v>
@@ -8920,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -8945,7 +11800,7 @@
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32">
       <c r="B55" s="1" t="str">
         <f t="shared" ref="B55:X55" si="9">IF(AND(B8&gt;8,B13&gt;8,B18&gt;8,B25&gt;8),"Done","")</f>
         <v>Done</v>
@@ -9039,7 +11894,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32">
       <c r="A56" s="5" t="s">
         <v>22</v>
       </c>
@@ -9116,7 +11971,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32">
       <c r="A57" s="5" t="s">
         <v>21</v>
       </c>
@@ -9193,7 +12048,7 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32">
       <c r="A58" s="5" t="s">
         <v>20</v>
       </c>
@@ -9270,7 +12125,7 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32">
       <c r="A59" s="5" t="s">
         <v>19</v>
       </c>
@@ -9351,7 +12206,7 @@
       </c>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32">
       <c r="A60" s="5" t="s">
         <v>16</v>
       </c>
@@ -9428,7 +12283,7 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32">
       <c r="A61" s="10" t="s">
         <v>15</v>
       </c>
@@ -9507,7 +12362,7 @@
       </c>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -9588,7 +12443,7 @@
       </c>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32">
       <c r="A63" s="5" t="s">
         <v>10</v>
       </c>
@@ -9667,7 +12522,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -9699,7 +12554,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:28" s="6" customFormat="1">
       <c r="B65" s="5" t="s">
         <v>4</v>
       </c>
@@ -9738,12 +12593,12 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:28">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:28">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
